--- a/data/pca/factorExposure/factorExposure_2013-04-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-6.669723581649741e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001934096728956664</v>
+      </c>
+      <c r="C2">
+        <v>-0.03318682776484335</v>
+      </c>
+      <c r="D2">
+        <v>0.001339840603264086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001933171679962587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005910239020873779</v>
+      </c>
+      <c r="C4">
+        <v>-0.08720458167089642</v>
+      </c>
+      <c r="D4">
+        <v>0.07567559330583089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0009221851570618625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01332716625568315</v>
+      </c>
+      <c r="C6">
+        <v>-0.1123576250373442</v>
+      </c>
+      <c r="D6">
+        <v>0.02929235041644209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001827989032837172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004615663815672121</v>
+      </c>
+      <c r="C7">
+        <v>-0.05651880775622248</v>
+      </c>
+      <c r="D7">
+        <v>0.03052656039886412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001362890183059217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005586221804239158</v>
+      </c>
+      <c r="C8">
+        <v>-0.03810833673753065</v>
+      </c>
+      <c r="D8">
+        <v>0.04064075739536813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003896251004483224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004038119361037314</v>
+      </c>
+      <c r="C9">
+        <v>-0.07259722148651927</v>
+      </c>
+      <c r="D9">
+        <v>0.06950133100221628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004296548055039144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005175112146254585</v>
+      </c>
+      <c r="C10">
+        <v>-0.06014781771123838</v>
+      </c>
+      <c r="D10">
+        <v>-0.2039608220910981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003236174293952124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005206469095319341</v>
+      </c>
+      <c r="C11">
+        <v>-0.08121824342098687</v>
+      </c>
+      <c r="D11">
+        <v>0.06029175413493922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0001086217642462017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003849003784489377</v>
+      </c>
+      <c r="C12">
+        <v>-0.06466064304915026</v>
+      </c>
+      <c r="D12">
+        <v>0.04577073748783388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003468955427624975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008452590786200673</v>
+      </c>
+      <c r="C13">
+        <v>-0.06751148523129009</v>
+      </c>
+      <c r="D13">
+        <v>0.06421003455106726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001521197848985508</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001408800689719747</v>
+      </c>
+      <c r="C14">
+        <v>-0.04690412883157252</v>
+      </c>
+      <c r="D14">
+        <v>0.008405637342290767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009952863464753148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005883773035152967</v>
+      </c>
+      <c r="C15">
+        <v>-0.04271834689675678</v>
+      </c>
+      <c r="D15">
+        <v>0.0306679844945324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001444410371243762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004839137600530289</v>
+      </c>
+      <c r="C16">
+        <v>-0.06686696922805571</v>
+      </c>
+      <c r="D16">
+        <v>0.04561514990174127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-5.858639125347979e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008743816892587623</v>
+      </c>
+      <c r="C20">
+        <v>-0.06858247781020174</v>
+      </c>
+      <c r="D20">
+        <v>0.04769677587682032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005270933785532289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009797379582495188</v>
+      </c>
+      <c r="C21">
+        <v>-0.02349281960801796</v>
+      </c>
+      <c r="D21">
+        <v>0.03511389768932427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01693051968469802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007096774947881433</v>
+      </c>
+      <c r="C22">
+        <v>-0.09524069522954048</v>
+      </c>
+      <c r="D22">
+        <v>0.1013877593415866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01725373213360104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006910634526106193</v>
+      </c>
+      <c r="C23">
+        <v>-0.09611622453438212</v>
+      </c>
+      <c r="D23">
+        <v>0.1017521804602492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001965122085899488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004855878700711826</v>
+      </c>
+      <c r="C24">
+        <v>-0.0754400035075295</v>
+      </c>
+      <c r="D24">
+        <v>0.05873759871894878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003899074800612484</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002624498273726153</v>
+      </c>
+      <c r="C25">
+        <v>-0.07895653466316707</v>
+      </c>
+      <c r="D25">
+        <v>0.0635711452540119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006189902511177552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003529296710259315</v>
+      </c>
+      <c r="C26">
+        <v>-0.04317375088180383</v>
+      </c>
+      <c r="D26">
+        <v>0.0259997888209505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005386869912973935</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001194113723542946</v>
+      </c>
+      <c r="C28">
+        <v>-0.1088302303421189</v>
+      </c>
+      <c r="D28">
+        <v>-0.3186756945148671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001287506239738025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002939817852572353</v>
+      </c>
+      <c r="C29">
+        <v>-0.04983388683553341</v>
+      </c>
+      <c r="D29">
+        <v>0.004100033849497024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003766308465468617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008600513921019405</v>
+      </c>
+      <c r="C30">
+        <v>-0.144601981761339</v>
+      </c>
+      <c r="D30">
+        <v>0.09740552136733908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>5.219920100467228e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006010351528501521</v>
+      </c>
+      <c r="C31">
+        <v>-0.04580421781884552</v>
+      </c>
+      <c r="D31">
+        <v>0.0323838646740086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005050044524866394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003882824495844601</v>
+      </c>
+      <c r="C32">
+        <v>-0.04072844414747142</v>
+      </c>
+      <c r="D32">
+        <v>0.02079708888427162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003262525968962943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00783772080713124</v>
+      </c>
+      <c r="C33">
+        <v>-0.08698497521975736</v>
+      </c>
+      <c r="D33">
+        <v>0.07183838608682681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004512065227371735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003642711342032326</v>
+      </c>
+      <c r="C34">
+        <v>-0.0582670272617175</v>
+      </c>
+      <c r="D34">
+        <v>0.04697627840611784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002652703748951163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004651884392617411</v>
+      </c>
+      <c r="C35">
+        <v>-0.03997387729636882</v>
+      </c>
+      <c r="D35">
+        <v>0.01341093924628178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004065073865336783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001385757839984715</v>
+      </c>
+      <c r="C36">
+        <v>-0.02568387541145666</v>
+      </c>
+      <c r="D36">
+        <v>0.02086312528081763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002049539129986301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009395753098621795</v>
+      </c>
+      <c r="C38">
+        <v>-0.0347149466840985</v>
+      </c>
+      <c r="D38">
+        <v>0.02065513578449757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01311172020353773</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001152126102004622</v>
+      </c>
+      <c r="C39">
+        <v>-0.118547266524303</v>
+      </c>
+      <c r="D39">
+        <v>0.07501829540005241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009640537713590183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.001906508423329685</v>
+      </c>
+      <c r="C40">
+        <v>-0.08905008434230957</v>
+      </c>
+      <c r="D40">
+        <v>0.00805268100316457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0004053449868346171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007112786891492923</v>
+      </c>
+      <c r="C41">
+        <v>-0.03791606064362035</v>
+      </c>
+      <c r="D41">
+        <v>0.03599199838045887</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003241213444970334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003417146472101932</v>
+      </c>
+      <c r="C43">
+        <v>-0.05131158376486154</v>
+      </c>
+      <c r="D43">
+        <v>0.02492443538370703</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002940536013013054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003284558287837665</v>
+      </c>
+      <c r="C44">
+        <v>-0.1152387779927121</v>
+      </c>
+      <c r="D44">
+        <v>0.07039918502895816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001722295029292273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002256585650325323</v>
+      </c>
+      <c r="C46">
+        <v>-0.03637843298459166</v>
+      </c>
+      <c r="D46">
+        <v>0.02658622837781797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0009206972723637936</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002614391020410699</v>
+      </c>
+      <c r="C47">
+        <v>-0.03801646734283123</v>
+      </c>
+      <c r="D47">
+        <v>0.02452772158905198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003149234609377289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006317403299153458</v>
+      </c>
+      <c r="C48">
+        <v>-0.02991716255470453</v>
+      </c>
+      <c r="D48">
+        <v>0.03157897950483147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01428952500927794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0143567279355123</v>
+      </c>
+      <c r="C49">
+        <v>-0.1826403256305781</v>
+      </c>
+      <c r="D49">
+        <v>0.009971138027088641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001336551726324375</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003411740596833818</v>
+      </c>
+      <c r="C50">
+        <v>-0.04461036753678195</v>
+      </c>
+      <c r="D50">
+        <v>0.03483644702979725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001204041576598675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004230240191759115</v>
+      </c>
+      <c r="C51">
+        <v>-0.02513405643858673</v>
+      </c>
+      <c r="D51">
+        <v>0.0227437976259974</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0005708397555333266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01982302620340674</v>
+      </c>
+      <c r="C53">
+        <v>-0.1684635355999453</v>
+      </c>
+      <c r="D53">
+        <v>0.0391839221763256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0009910377359128842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008604447189816646</v>
+      </c>
+      <c r="C54">
+        <v>-0.05734085056096392</v>
+      </c>
+      <c r="D54">
+        <v>0.04114166103584078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003948648343804876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009010911256699351</v>
+      </c>
+      <c r="C55">
+        <v>-0.1092823761980067</v>
+      </c>
+      <c r="D55">
+        <v>0.04524643358867386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003141810068603093</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01932102046451023</v>
+      </c>
+      <c r="C56">
+        <v>-0.1757472414471744</v>
+      </c>
+      <c r="D56">
+        <v>0.03876959156141908</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007526526236854528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01911475509072398</v>
+      </c>
+      <c r="C58">
+        <v>-0.1087569675955294</v>
+      </c>
+      <c r="D58">
+        <v>0.05253645817648966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007037928357638152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008620576825400704</v>
+      </c>
+      <c r="C59">
+        <v>-0.1573066723218391</v>
+      </c>
+      <c r="D59">
+        <v>-0.3033026219859324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004496347228361122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02285499045360521</v>
+      </c>
+      <c r="C60">
+        <v>-0.2229231860832006</v>
+      </c>
+      <c r="D60">
+        <v>0.02182452471304014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01461678960281767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002185981621433375</v>
+      </c>
+      <c r="C61">
+        <v>-0.09650177115759885</v>
+      </c>
+      <c r="D61">
+        <v>0.05823742745567888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1703546960017528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438227877986083</v>
+      </c>
+      <c r="C62">
+        <v>-0.0875833705066692</v>
+      </c>
+      <c r="D62">
+        <v>0.04555781042084708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001146304821074807</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006210515316807955</v>
+      </c>
+      <c r="C63">
+        <v>-0.05837541919065258</v>
+      </c>
+      <c r="D63">
+        <v>0.02498794377275383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005235956184052278</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01468242569130411</v>
+      </c>
+      <c r="C64">
+        <v>-0.1055616704307502</v>
+      </c>
+      <c r="D64">
+        <v>0.05956389009100335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001777470432952372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01697227338451601</v>
+      </c>
+      <c r="C65">
+        <v>-0.119692192900427</v>
+      </c>
+      <c r="D65">
+        <v>0.01500872265489394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008378724707348474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0121068236594676</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605205794524548</v>
+      </c>
+      <c r="D66">
+        <v>0.1138600464946339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003472216531803603</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01541233596843772</v>
+      </c>
+      <c r="C67">
+        <v>-0.06525382782219735</v>
+      </c>
+      <c r="D67">
+        <v>0.02944779118524237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006761967495950042</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004631899022697033</v>
+      </c>
+      <c r="C68">
+        <v>-0.08857229158004724</v>
+      </c>
+      <c r="D68">
+        <v>-0.2507382966687579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002913521059472336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00571803846116731</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050397575082928</v>
+      </c>
+      <c r="D69">
+        <v>0.03887241966960043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>4.831209914779777e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001823530786647117</v>
+      </c>
+      <c r="C70">
+        <v>-0.002503195054456209</v>
+      </c>
+      <c r="D70">
+        <v>0.000713841748858869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001457344329476102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005696251058832006</v>
+      </c>
+      <c r="C71">
+        <v>-0.0983027202373124</v>
+      </c>
+      <c r="D71">
+        <v>-0.2960568833462798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005482282944553807</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01510455089554399</v>
+      </c>
+      <c r="C72">
+        <v>-0.1500125392135424</v>
+      </c>
+      <c r="D72">
+        <v>0.02041692401562269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01164992028128044</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02865713860595526</v>
+      </c>
+      <c r="C73">
+        <v>-0.2752947290739382</v>
+      </c>
+      <c r="D73">
+        <v>0.04633653229134637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004931486488176868</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001030263302945342</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043745067609635</v>
+      </c>
+      <c r="D74">
+        <v>0.04186305577120228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003706713577958791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.010446624914761</v>
+      </c>
+      <c r="C75">
+        <v>-0.1316034885401727</v>
+      </c>
+      <c r="D75">
+        <v>0.02612304237708718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009372521840806197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02082484312184635</v>
+      </c>
+      <c r="C76">
+        <v>-0.1501124408715698</v>
+      </c>
+      <c r="D76">
+        <v>0.06520326350392691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0005092554106255961</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02394331652026921</v>
+      </c>
+      <c r="C77">
+        <v>-0.1347380988043611</v>
+      </c>
+      <c r="D77">
+        <v>0.05589285163403935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001478313658088905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01405144139729748</v>
+      </c>
+      <c r="C78">
+        <v>-0.09466599640682224</v>
+      </c>
+      <c r="D78">
+        <v>0.06924054904500232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02449876442151485</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03664243118234783</v>
+      </c>
+      <c r="C79">
+        <v>-0.15746015939188</v>
+      </c>
+      <c r="D79">
+        <v>0.03145157714337919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004741453276466278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01034718460867753</v>
+      </c>
+      <c r="C80">
+        <v>-0.04233167933552531</v>
+      </c>
+      <c r="D80">
+        <v>0.03066964580802553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002504448082152233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01447596771810923</v>
+      </c>
+      <c r="C81">
+        <v>-0.1290972088318829</v>
+      </c>
+      <c r="D81">
+        <v>0.0442241249621914</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005653320810791231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01906095553631797</v>
+      </c>
+      <c r="C82">
+        <v>-0.1441602987548395</v>
+      </c>
+      <c r="D82">
+        <v>0.04101371101825398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008431697074919975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009903428528404531</v>
+      </c>
+      <c r="C83">
+        <v>-0.05766748393612871</v>
+      </c>
+      <c r="D83">
+        <v>0.05276561070977353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01261741743931729</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145942374995256</v>
+      </c>
+      <c r="C84">
+        <v>-0.0364364150875238</v>
+      </c>
+      <c r="D84">
+        <v>-0.008925594623686715</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01525265242866142</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02759414713191048</v>
+      </c>
+      <c r="C85">
+        <v>-0.1314110408103895</v>
+      </c>
+      <c r="D85">
+        <v>0.0434217610067186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001305663111944466</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005316755479229675</v>
+      </c>
+      <c r="C86">
+        <v>-0.04966317260023215</v>
+      </c>
+      <c r="D86">
+        <v>0.01990313163931696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.005690329699017903</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009966034725494382</v>
+      </c>
+      <c r="C87">
+        <v>-0.1321141877920792</v>
+      </c>
+      <c r="D87">
+        <v>0.06589815990897376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01318916290299683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003140528782324854</v>
+      </c>
+      <c r="C88">
+        <v>-0.06769836000473918</v>
+      </c>
+      <c r="D88">
+        <v>0.01202102552000695</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01542752441633606</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001947782555307134</v>
+      </c>
+      <c r="C89">
+        <v>-0.1455372878272002</v>
+      </c>
+      <c r="D89">
+        <v>-0.3508398276513599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003040310615961555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006484844689466722</v>
+      </c>
+      <c r="C90">
+        <v>-0.1219123013300108</v>
+      </c>
+      <c r="D90">
+        <v>-0.3225172000612408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006944918644732328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009931260943923126</v>
+      </c>
+      <c r="C91">
+        <v>-0.1034468454138881</v>
+      </c>
+      <c r="D91">
+        <v>0.02229040378694659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008830894253312956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-5.472796382437486e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1350959198698498</v>
+      </c>
+      <c r="D92">
+        <v>-0.3378609401586234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0008653010352937901</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00442417001107898</v>
+      </c>
+      <c r="C93">
+        <v>-0.1052983526524128</v>
+      </c>
+      <c r="D93">
+        <v>-0.3167963997310776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00351109852312868</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02188187325669073</v>
+      </c>
+      <c r="C94">
+        <v>-0.153496552526691</v>
+      </c>
+      <c r="D94">
+        <v>0.04685161279860016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004924123336482969</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01574346926009652</v>
+      </c>
+      <c r="C95">
+        <v>-0.1268472399644651</v>
+      </c>
+      <c r="D95">
+        <v>0.06119300824357537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001865578817102941</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03359922607485157</v>
+      </c>
+      <c r="C97">
+        <v>-0.1893108200664258</v>
+      </c>
+      <c r="D97">
+        <v>0.008625562991041063</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004044746100037521</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03559909442534546</v>
+      </c>
+      <c r="C98">
+        <v>-0.2491444592321868</v>
+      </c>
+      <c r="D98">
+        <v>0.04998033842283046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9834071028036028</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9829216449001863</v>
+      </c>
+      <c r="C99">
+        <v>0.1099610440002331</v>
+      </c>
+      <c r="D99">
+        <v>-0.02733302009095167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001244163520874391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.0029837524706383</v>
+      </c>
+      <c r="C101">
+        <v>-0.04986251959770317</v>
+      </c>
+      <c r="D101">
+        <v>0.004546896602433839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
